--- a/Data_science_outputs/Graphs/Third/5/Montlhy_consumption_4.xlsx
+++ b/Data_science_outputs/Graphs/Third/5/Montlhy_consumption_4.xlsx
@@ -475,16 +475,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>43717.17397839993</v>
+        <v>33209.08225364993</v>
       </c>
       <c r="C2" t="n">
         <v>5760.803170766651</v>
       </c>
       <c r="D2" t="n">
-        <v>9626.617038483333</v>
+        <v>1901.985547483333</v>
       </c>
       <c r="E2" t="n">
-        <v>8281.371007716667</v>
+        <v>5694.2169844</v>
       </c>
       <c r="F2" t="n">
         <v>11.904</v>
@@ -498,16 +498,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>40461.90002969994</v>
+        <v>31216.5484485166</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>8959.287730399999</v>
+        <v>1758.351291916667</v>
       </c>
       <c r="E3" t="n">
-        <v>7803.721819700001</v>
+        <v>5239.709536516666</v>
       </c>
       <c r="F3" t="n">
         <v>32.016</v>
@@ -521,16 +521,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>43233.68601074993</v>
+        <v>33173.69380958327</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>9582.535426500001</v>
+        <v>1909.6054191</v>
       </c>
       <c r="E4" t="n">
-        <v>8525.732926216668</v>
+        <v>5701.878311616667</v>
       </c>
       <c r="F4" t="n">
         <v>56.544</v>
@@ -544,16 +544,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>41988.4536437166</v>
+        <v>32351.4081061166</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>9308.516178599999</v>
+        <v>1889.915044066667</v>
       </c>
       <c r="E5" t="n">
-        <v>8060.7413999</v>
+        <v>5539.472229683333</v>
       </c>
       <c r="F5" t="n">
         <v>76.68000000000001</v>
@@ -567,16 +567,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>43527.2485598666</v>
+        <v>33456.34117584994</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>9595.581023983334</v>
+        <v>1903.622835366667</v>
       </c>
       <c r="E6" t="n">
-        <v>8536.467238783334</v>
+        <v>5635.476059883334</v>
       </c>
       <c r="F6" t="n">
         <v>101.928</v>
@@ -590,16 +590,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>41928.80116844994</v>
+        <v>32074.0560817666</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>9293.153806350001</v>
+        <v>1869.6174719</v>
       </c>
       <c r="E7" t="n">
-        <v>8043.582564833334</v>
+        <v>5756.124315266667</v>
       </c>
       <c r="F7" t="n">
         <v>120.6</v>
@@ -613,16 +613,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>43334.18563833326</v>
+        <v>33022.4210715666</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>9653.627505500001</v>
+        <v>1899.69930645</v>
       </c>
       <c r="E8" t="n">
-        <v>8399.188300216667</v>
+        <v>5610.302750683333</v>
       </c>
       <c r="F8" t="n">
         <v>147.312</v>
@@ -636,16 +636,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>43455.4336235166</v>
+        <v>33294.84516929993</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>9586.3253487</v>
+        <v>1879.829380483333</v>
       </c>
       <c r="E9" t="n">
-        <v>8212.552386283334</v>
+        <v>5614.832517466666</v>
       </c>
       <c r="F9" t="n">
         <v>170.376</v>
@@ -659,16 +659,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>42002.51408684994</v>
+        <v>32136.99496884993</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>9283.14832425</v>
+        <v>1855.6239275</v>
       </c>
       <c r="E10" t="n">
-        <v>8538.7268802</v>
+        <v>5479.308287316667</v>
       </c>
       <c r="F10" t="n">
         <v>186.84</v>
@@ -682,16 +682,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>43396.37287908327</v>
+        <v>33099.4474003166</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>9590.967953316667</v>
+        <v>1901.421045</v>
       </c>
       <c r="E11" t="n">
-        <v>8500.185721283333</v>
+        <v>5657.74548565</v>
       </c>
       <c r="F11" t="n">
         <v>215.76</v>
@@ -705,16 +705,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41909.74102719993</v>
+        <v>32383.45669494993</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>9309.633386483334</v>
+        <v>1884.783771483333</v>
       </c>
       <c r="E12" t="n">
-        <v>8322.143947366667</v>
+        <v>5674.559654383334</v>
       </c>
       <c r="F12" t="n">
         <v>230.76</v>
@@ -728,16 +728,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>42441.25791388327</v>
+        <v>32103.15360359993</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>9269.022829466667</v>
+        <v>1831.75313835</v>
       </c>
       <c r="E13" t="n">
-        <v>8151.65862635</v>
+        <v>5761.713906583333</v>
       </c>
       <c r="F13" t="n">
         <v>252.36</v>
